--- a/biology/Histoire de la zoologie et de la botanique/Muséum_d'histoire_naturelle_et_d'archéologie_de_Trondheim/Muséum_d'histoire_naturelle_et_d'archéologie_de_Trondheim.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Muséum_d'histoire_naturelle_et_d'archéologie_de_Trondheim/Muséum_d'histoire_naturelle_et_d'archéologie_de_Trondheim.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9um_d%27histoire_naturelle_et_d%27arch%C3%A9ologie_de_Trondheim</t>
+          <t>Muséum_d'histoire_naturelle_et_d'archéologie_de_Trondheim</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muséum d'histoire naturelle et d'archéologie (NTNU), (en norvégien : Vitenskapsmuseet), est un musée dépendant de l'université norvégienne de sciences et de technologie (NTNU : Norges teknisk-naturvitenskapelige universitet) situé à Trondheim en Norvège. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9um_d%27histoire_naturelle_et_d%27arch%C3%A9ologie_de_Trondheim</t>
+          <t>Muséum_d'histoire_naturelle_et_d'archéologie_de_Trondheim</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les collections du muséum d'histoire naturelle et d'archéologie furent constituées en 1767 quand la Société royale des lettres et des sciences de Norvège les a officiellement constituées et organisées. Ces collections enrichies avec les siècles furent regroupées pour l'ouverture officielle du muséum en 1926. En 1968, le muséum fut rattaché à l'université de Trondheim.
 Le muséum présente trois thèmes historiques concernant spécifiquement la région de Trondheim et plus largement la région septentrionale de la Scandinavie : l'histoire naturelle, l'histoire culturelle et l'archéologie.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mus%C3%A9um_d%27histoire_naturelle_et_d%27arch%C3%A9ologie_de_Trondheim</t>
+          <t>Muséum_d'histoire_naturelle_et_d'archéologie_de_Trondheim</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Site officiel du muséum d'histoire naturelle et d'archéologie (NTNU)
  Portail des musées   Portail des sciences   Portail de l’histoire de la zoologie et de la botanique   Portail de l’histoire   Portail de la Norvège   Portail de l’archéologie                </t>
